--- a/biology/Botanique/Heterochaenia_rivalsii/Heterochaenia_rivalsii.xlsx
+++ b/biology/Botanique/Heterochaenia_rivalsii/Heterochaenia_rivalsii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterochaenia rivalsii est une espèce de plantes de la famille des Campanulaceae. Cette espèce est endémique de La Réunion. Le genre Heterochaenia est lui-même endémique de l'île.
 Elle n'a été décrite que récemment et on ne lui connaît pas de nom vernaculaire. Elle se présente pendant plusieurs années sous la forme d'une tige simple de quelques décimètres surmontée d'un bouquet de feuilles. Elle commence sa floraison de manière spectaculaire en formant une inflorescence dépassant souvent un mètre de hauteur et portant de nombreuses fleurs de même allure que les clochettes de campanules, de couleur crème soulignée de lignes violettes. La floraison épuise la plante qui meurt après avoir libéré ses graines. Les fruits sont monocarpiques.
